--- a/Bike_sales_project.xlsx
+++ b/Bike_sales_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Scientist\Excel-project-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53374231-F334-4EB7-83D4-CE24A50AC935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB49CC5-C2E1-46BE-8008-8E7B188FC96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="748" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -734,6 +734,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1721,10 +1722,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80014036560174517"/>
-          <c:y val="0.38722577507376693"/>
-          <c:w val="0.1814172343394074"/>
-          <c:h val="0.30626081387098192"/>
+          <c:x val="0.7740704448325445"/>
+          <c:y val="0.32240572116711036"/>
+          <c:w val="0.16279588751923171"/>
+          <c:h val="0.42869850026639689"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1740,7 +1741,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -4149,7 +4150,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="85000"/>
@@ -4163,7 +4164,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -4250,7 +4251,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="85000"/>
@@ -4264,7 +4265,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -4618,7 +4619,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="85000"/>
@@ -4632,8 +4633,9 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4703,6 +4705,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Gender(Avg Income)'!$A$4:$A$6</c:f>
@@ -4805,6 +4863,7 @@
         <c:axId val="978048511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6424,6 +6483,72 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>356681</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4A09C9-F677-E4A7-FBD7-98B41A340831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20510500" y="1441838"/>
+          <a:ext cx="2879363" cy="8845162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="222A35"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -6464,8 +6589,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5156315" y="1365260"/>
-          <a:ext cx="15404476" cy="8380583"/>
+          <a:off x="5211077" y="1429979"/>
+          <a:ext cx="15575607" cy="8793164"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6477,13 +6602,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>607401</xdr:colOff>
+      <xdr:colOff>580572</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>70961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381802</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>170793</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>41654</xdr:rowOff>
     </xdr:to>
@@ -6553,13 +6678,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>89794</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>63232</xdr:rowOff>
+      <xdr:colOff>394138</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>12561</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>472966</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>103623</xdr:rowOff>
     </xdr:to>
@@ -6588,96 +6713,18 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>148722</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>140118</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>191708</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>6139</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="27" name="Purchased Bike 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7649E1F-E3EE-4ED0-87FF-B42334F2013A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Purchased Bike 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="18518365" y="3242547"/>
-              <a:ext cx="1879950" cy="1335592"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>109332</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>119951</xdr:rowOff>
+      <xdr:colOff>430162</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>263422</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>454743</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>38592</xdr:rowOff>
+      <xdr:rowOff>492</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6706,16 +6753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>437379</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>56018</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>30487</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>135760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>179270</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>154912</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>155359</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>77236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6730,8 +6777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18194700" y="6914018"/>
-          <a:ext cx="2803499" cy="262180"/>
+          <a:off x="20956179" y="7067029"/>
+          <a:ext cx="2586718" cy="263861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6838,7 +6885,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
@@ -6890,16 +6937,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>534434</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>98279</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>127541</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>16830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>70987</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47565</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>601295</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139623</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Gender(Avg Income)'!C5">
       <xdr:nvSpPr>
@@ -6914,8 +6961,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18291755" y="7282850"/>
-          <a:ext cx="1985839" cy="439144"/>
+          <a:off x="21053233" y="7431676"/>
+          <a:ext cx="2320139" cy="445178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7022,7 +7069,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:fld id="{77634662-6E7A-49E7-98BE-E45020934711}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -7031,7 +7078,7 @@
               <a:latin typeface="Integral CF" panose="00000500000000000000" pitchFamily="50" charset="0"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:pPr algn="l"/>
+            <a:pPr algn="ctr"/>
             <a:t>$58,062.62</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="4000">
@@ -7047,16 +7094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>541002</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>49992</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>340311</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>129735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>49992</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>488272</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>129735</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7071,8 +7118,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18298323" y="7234563"/>
-          <a:ext cx="1935498" cy="0"/>
+          <a:off x="21266003" y="7383389"/>
+          <a:ext cx="1994346" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7102,16 +7149,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>393584</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>145367</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>1488</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>26927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>62248</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>85160</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>184951</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127911</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7126,8 +7173,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18150905" y="7983081"/>
-          <a:ext cx="2730272" cy="266365"/>
+          <a:off x="20927180" y="8247735"/>
+          <a:ext cx="2645309" cy="262176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7234,7 +7281,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
@@ -7432,16 +7479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>562897</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>8076</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>170801</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>55908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>157685</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>133564</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>78980</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>15123</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Gender(Avg Income)'!C4">
       <xdr:nvSpPr>
@@ -7456,8 +7503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18320218" y="8335647"/>
-          <a:ext cx="2044074" cy="452060"/>
+          <a:off x="21096493" y="8599100"/>
+          <a:ext cx="2370025" cy="442792"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7564,7 +7611,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:fld id="{7A079DDC-C903-44DB-BFBE-5395E150A016}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -7573,7 +7620,7 @@
               <a:latin typeface="Integral CF" panose="00000500000000000000" pitchFamily="50" charset="0"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:pPr algn="l"/>
+            <a:pPr algn="ctr"/>
             <a:t>$54,580.78</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="8800">
@@ -7589,16 +7636,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>477500</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>110877</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>266331</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>153628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>181898</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>110877</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>562252</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>153628</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7613,8 +7660,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18234821" y="8275163"/>
-          <a:ext cx="2153684" cy="0"/>
+          <a:off x="21192023" y="8535628"/>
+          <a:ext cx="2142306" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7644,16 +7691,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>8863</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>68440</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>38171</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>359173</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>40041</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>388481</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7668,8 +7715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9743561" y="6518859"/>
-          <a:ext cx="2783984" cy="302391"/>
+          <a:off x="20963863" y="3826498"/>
+          <a:ext cx="2812156" cy="293987"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7808,16 +7855,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>245182</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>64843</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>274490</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>115479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>417521</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>140552</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>446828</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Bike_purchase (Age Brackets)'!C7">
       <xdr:nvSpPr>
@@ -7832,8 +7879,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9960682" y="6899031"/>
-          <a:ext cx="1993995" cy="575771"/>
+          <a:off x="21200182" y="4145287"/>
+          <a:ext cx="2018723" cy="568289"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7872,16 +7919,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>124675</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>40004</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>153983</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9315</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>40004</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>38623</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7896,8 +7943,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9859373" y="6821213"/>
-          <a:ext cx="2318314" cy="0"/>
+          <a:off x="21079675" y="4120448"/>
+          <a:ext cx="2346486" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7927,16 +7974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>593767</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>166404</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>7203</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>340001</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>23087</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>359927</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7951,8 +7998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9713448" y="7997170"/>
-          <a:ext cx="2786127" cy="537619"/>
+          <a:off x="20932895" y="5030665"/>
+          <a:ext cx="2814570" cy="506945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8091,16 +8138,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>75424</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>52956</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>95350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>79692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>568483</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>52956</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>593106</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>79692</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8115,8 +8162,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9803084" y="8564658"/>
-          <a:ext cx="2316995" cy="0"/>
+          <a:off x="21021042" y="5560230"/>
+          <a:ext cx="2344141" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8146,16 +8193,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>222158</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>123145</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>242084</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>149881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>150915</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>95254</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>170841</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Top_BUYERS!C4">
       <xdr:nvSpPr>
@@ -8170,8 +8217,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9949818" y="8634847"/>
-          <a:ext cx="2360671" cy="312577"/>
+          <a:off x="21167776" y="5630419"/>
+          <a:ext cx="2390603" cy="294494"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8210,16 +8257,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>222158</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>148211</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>242084</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>13755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>150915</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>125119</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>170841</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>151853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Top_BUYERS!C5">
       <xdr:nvSpPr>
@@ -8234,8 +8281,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9949818" y="9000381"/>
-          <a:ext cx="2360671" cy="317376"/>
+          <a:off x="21167776" y="5977870"/>
+          <a:ext cx="2390603" cy="299291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8274,16 +8321,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>222157</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>3043</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>242083</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>41401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>150914</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>150186</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>170840</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15731</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Top_BUYERS!C6">
       <xdr:nvSpPr>
@@ -8298,8 +8345,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9949817" y="9365915"/>
-          <a:ext cx="2360671" cy="317377"/>
+          <a:off x="21167775" y="6327901"/>
+          <a:ext cx="2390603" cy="296715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8338,16 +8385,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>15904</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>153223</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>35830</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>20521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>396559</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>79165</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>416485</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>105901</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8362,8 +8409,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9743564" y="8664925"/>
-          <a:ext cx="380655" cy="266410"/>
+          <a:off x="20961522" y="5662252"/>
+          <a:ext cx="380655" cy="246572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8394,16 +8441,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>15904</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>8056</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>35830</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>46416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>396559</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>102083</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>416485</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128817</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8418,8 +8465,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9743564" y="9030460"/>
-          <a:ext cx="380655" cy="264261"/>
+          <a:off x="20961522" y="6010531"/>
+          <a:ext cx="380655" cy="243594"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8450,16 +8497,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>25931</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>38134</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>45857</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>69657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>406586</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>139110</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>426512</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4655</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8474,8 +8521,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9753591" y="9401006"/>
-          <a:ext cx="380655" cy="271210"/>
+          <a:off x="20971549" y="6356157"/>
+          <a:ext cx="380655" cy="257383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8512,8 +8559,8 @@
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>449036</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
@@ -8530,8 +8577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5225143" y="204107"/>
-          <a:ext cx="15430500" cy="979714"/>
+          <a:off x="5175663" y="214003"/>
+          <a:ext cx="18221201" cy="1039091"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8583,16 +8630,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>526915</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>72957</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>186447</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>105384</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>144379</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>156019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8607,8 +8654,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9646596" y="6371617"/>
-          <a:ext cx="2699425" cy="1394299"/>
+          <a:off x="20925692" y="3508631"/>
+          <a:ext cx="2606225" cy="1321965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8649,16 +8696,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>535021</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>64851</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>194554</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>24320</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>55844</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8673,8 +8720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9654702" y="7895617"/>
-          <a:ext cx="2699426" cy="2002277"/>
+          <a:off x="20925692" y="4927356"/>
+          <a:ext cx="2614246" cy="1898565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8715,16 +8762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>405114</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>96456</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>604861</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>202557</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>154330</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>170154</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>68705</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8739,8 +8786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18027570" y="6819418"/>
-          <a:ext cx="2228126" cy="1041722"/>
+          <a:off x="20915092" y="6946275"/>
+          <a:ext cx="2642600" cy="1020853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8781,16 +8828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>405113</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>96456</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>13017</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>51996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>221847</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>67519</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>177553</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>23061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8805,8 +8852,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18027569" y="7967241"/>
-          <a:ext cx="2247417" cy="1118886"/>
+          <a:off x="20938709" y="8111611"/>
+          <a:ext cx="2626382" cy="1099412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8843,6 +8890,84 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>4821</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>131884</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138559</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="27" name="Purchased Bike 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7649E1F-E3EE-4ED0-87FF-B42334F2013A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Purchased Bike 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="20731221" y="1909795"/>
+              <a:ext cx="2565463" cy="1553855"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -24895,7 +25020,7 @@
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="22">
         <v>47</v>
       </c>
     </row>
@@ -24903,7 +25028,7 @@
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="22">
         <v>375</v>
       </c>
     </row>
@@ -24911,7 +25036,7 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="22">
         <v>59</v>
       </c>
     </row>
@@ -24919,7 +25044,7 @@
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="22">
         <v>481</v>
       </c>
       <c r="C7">
@@ -25203,7 +25328,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B6"/>
+      <selection activeCell="AQ51" sqref="AQ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -25271,8 +25396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7F0433-07D0-467C-8717-DA676E0E7DE0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="C10" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="AK36" sqref="AK36"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AQ39" sqref="AQ39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
